--- a/biology/Neurosciences/Barbara_Tillmann/Barbara_Tillmann.xlsx
+++ b/biology/Neurosciences/Barbara_Tillmann/Barbara_Tillmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barbara Tillmann, née vers 1971[1], est une chercheuse en sciences cognitives.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbara Tillmann, née vers 1971, est une chercheuse en sciences cognitives.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle dirige ses recherches au Centre de Recherche en Neurosciences de Lyon où elle est responsable de l’équipe Cognition auditive et psychoacoustique[2]. En 2016, elle reçoit la médaille d'argent du CNRS pour ses travaux qui visent à décrypter les mécanismes cognitifs et neuronaux permettant au cerveau humain de percevoir les structures musicales[3].
-Elle étudie plus particulièrement les phénomènes d’amusie congénitale. Ses travaux ont également contribué à révéler le rôle bénéfique de la musique dans le traitement de certains troubles cognitifs. Elle a ainsi démontré que des amorces musicales pouvaient améliorer les performances linguistiques d’enfants souffrant de dyslexie ou de dysphasie. Elle a organisé la conférence internationale Musique et neurosciences à Dijon en 2014[4]. Barbara Tillmann est membre du conseil scientifique du Centre européen de musique[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle dirige ses recherches au Centre de Recherche en Neurosciences de Lyon où elle est responsable de l’équipe Cognition auditive et psychoacoustique. En 2016, elle reçoit la médaille d'argent du CNRS pour ses travaux qui visent à décrypter les mécanismes cognitifs et neuronaux permettant au cerveau humain de percevoir les structures musicales.
+Elle étudie plus particulièrement les phénomènes d’amusie congénitale. Ses travaux ont également contribué à révéler le rôle bénéfique de la musique dans le traitement de certains troubles cognitifs. Elle a ainsi démontré que des amorces musicales pouvaient améliorer les performances linguistiques d’enfants souffrant de dyslexie ou de dysphasie. Elle a organisé la conférence internationale Musique et neurosciences à Dijon en 2014. Barbara Tillmann est membre du conseil scientifique du Centre européen de musique.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications sélectives</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pineau, M., &amp; Tillmann, B. (2001). Percevoir la musique: une activité cognitive. Editions L'Harmattan.
 (en) Norman-Haignere, S. V., Albouy, P., Caclin, A., McDermott, J. H., Kanwisher, N. G., &amp; Tillmann, B. (2016).Pitch-Responsive Cortical Regions in Congenital Amusia. The Journal of Neuroscience, 36(10), 2986-2994.
@@ -584,9 +600,11 @@
           <t>Récompenses et honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2004 : médaille de bronze du CNRS[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2004 : médaille de bronze du CNRS
 2016 : médaille d'argent du CNRS</t>
         </is>
       </c>
